--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3303608.226340448</v>
+        <v>3298404.892880134</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7004663.855489953</v>
+        <v>7002893.917318698</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>68.79271056253786</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>68.68175800922427</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>47.77614120445281</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348899737</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>113.1667354347867</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -911,7 +911,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>151.1396095829219</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>300.7299672613302</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899737</v>
+        <v>1.89482639941295</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>23.65533685472301</v>
       </c>
       <c r="V7" t="n">
-        <v>142.5210339138396</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.30772385275628</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1139,7 +1139,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.7228736769095</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>48.43164463630132</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -1370,7 +1370,7 @@
         <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
@@ -1382,13 +1382,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>10.60336910358964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>153.6204439133942</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,7 +1622,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>81.61838887131761</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>22.74559348238106</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277472</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059311</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415738</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752491</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453471</v>
+        <v>20.92391191189569</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443484</v>
+        <v>48.81858568179581</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158223</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897096</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046316</v>
+        <v>67.32610467782413</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074557</v>
+        <v>52.47323292810654</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258529</v>
+        <v>38.04694813994627</v>
       </c>
       <c r="E34" t="n">
-        <v>44.4168526654644</v>
+        <v>37.97339019282538</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523167</v>
+        <v>39.72284161259265</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762381</v>
+        <v>50.54167953498478</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419585</v>
+        <v>37.89393170155682</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536778</v>
+        <v>15.73364728272875</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.0756081198237</v>
+        <v>6.632145647184672</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535102</v>
+        <v>84.75808915271199</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>249.6686348150077</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
@@ -3746,7 +3746,7 @@
         <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3755,7 +3755,7 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>152.8208635826927</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415635</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443875</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627848</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915763</v>
+        <v>57.53638454915759</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892486</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131699</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788904</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906097</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351693</v>
+        <v>26.19514000351688</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3952,13 +3952,13 @@
         <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
         <v>135.2726795246148</v>
@@ -3980,7 +3980,7 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
         <v>302.0908501643889</v>
@@ -3992,7 +3992,7 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>41.58521707215084</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812802</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111635</v>
@@ -4043,7 +4043,7 @@
         <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>295.4777656772415</v>
       </c>
     </row>
     <row r="45">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>860.2261508187746</v>
+        <v>1048.916045414576</v>
       </c>
       <c r="C2" t="n">
-        <v>467.0506493217052</v>
+        <v>655.7405439175066</v>
       </c>
       <c r="D2" t="n">
-        <v>467.0506493217052</v>
+        <v>270.2994151341743</v>
       </c>
       <c r="E2" t="n">
-        <v>64.46712443824971</v>
+        <v>200.8118287073684</v>
       </c>
       <c r="F2" t="n">
-        <v>51.61309000863153</v>
+        <v>187.9577942777502</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703876</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703876</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>625.6413842912846</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>1151.464273687139</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687139</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579468</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.69136671099</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.54401313746</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.54401313746</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>2086.54401313746</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="U2" t="n">
-        <v>2086.54401313746</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="V2" t="n">
-        <v>2017.168499996829</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="W2" t="n">
-        <v>1646.169464965117</v>
+        <v>1449.410791125973</v>
       </c>
       <c r="X2" t="n">
-        <v>1256.716859898173</v>
+        <v>1449.410791125973</v>
       </c>
       <c r="Y2" t="n">
-        <v>860.2261508187746</v>
+        <v>1449.410791125973</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>505.9467430955083</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>355.2925126556005</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>225.2035452770808</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>88.75705438796854</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245262</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512717</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703876</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>362.2298845992652</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L3" t="n">
-        <v>362.2298845992652</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M3" t="n">
-        <v>442.2072945938143</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896689</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.55046658065</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297047</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851938</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851938</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609623</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364696</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T4" t="n">
-        <v>708.2187092468254</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U4" t="n">
-        <v>422.7799174887263</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V4" t="n">
-        <v>156.8005723095505</v>
+        <v>781.0211113678181</v>
       </c>
       <c r="W4" t="n">
-        <v>156.8005723095505</v>
+        <v>497.6907092989958</v>
       </c>
       <c r="X4" t="n">
-        <v>42.49073853703876</v>
+        <v>263.6103870819789</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>981.4208716261867</v>
+        <v>1320.653905521403</v>
       </c>
       <c r="C5" t="n">
-        <v>588.2453701291172</v>
+        <v>927.4784040243333</v>
       </c>
       <c r="D5" t="n">
-        <v>202.8042413457849</v>
+        <v>927.4784040243333</v>
       </c>
       <c r="E5" t="n">
-        <v>202.8042413457849</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="F5" t="n">
-        <v>189.9502069161667</v>
+        <v>512.0408447112595</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8278554445739</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445739</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703876</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>401.4730945645006</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="L5" t="n">
-        <v>632.8515471679002</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="M5" t="n">
-        <v>1158.674436563755</v>
+        <v>550.6768587708638</v>
       </c>
       <c r="N5" t="n">
-        <v>1684.497325959609</v>
+        <v>1051.843641766314</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851938</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851938</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.54401313746</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.03045807851</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.03045807851</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="U5" t="n">
-        <v>1920.03045807851</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="V5" t="n">
-        <v>1767.364185772529</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="W5" t="n">
-        <v>1767.364185772529</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="X5" t="n">
-        <v>1377.911580705585</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.4208716261867</v>
+        <v>1721.1486512328</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245262</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512717</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173059</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M6" t="n">
-        <v>1202.395275544559</v>
+        <v>883.7630516643745</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544559</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135541</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851938</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.4419851123649</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="C7" t="n">
-        <v>361.4419851123649</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="D7" t="n">
-        <v>361.4419851123649</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="E7" t="n">
-        <v>361.4419851123649</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="F7" t="n">
-        <v>361.4419851123649</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G7" t="n">
-        <v>361.4419851123649</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H7" t="n">
-        <v>205.9634340738589</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093681</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703876</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>739.1292646227239</v>
       </c>
       <c r="T7" t="n">
-        <v>505.4026254293747</v>
+        <v>739.1292646227239</v>
       </c>
       <c r="U7" t="n">
-        <v>505.4026254293747</v>
+        <v>715.2349849714885</v>
       </c>
       <c r="V7" t="n">
-        <v>361.4419851123649</v>
+        <v>715.2349849714885</v>
       </c>
       <c r="W7" t="n">
-        <v>361.4419851123649</v>
+        <v>431.9045829026662</v>
       </c>
       <c r="X7" t="n">
-        <v>361.4419851123649</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.4419851123649</v>
+        <v>197.8242606856493</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.406961705009</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C8" t="n">
-        <v>1725.23146020794</v>
+        <v>1972.473003580111</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>1587.031874796779</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>384.8067996709529</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>384.8067996709529</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4996,16 +4996,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>787.8357555707396</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>504.5053535019172</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>270.4250312849002</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1572.977054970837</v>
+        <v>1520.303839177572</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1222.069018967691</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>931.5685714715469</v>
       </c>
       <c r="E11" t="n">
-        <v>974.833763878426</v>
+        <v>623.9257278752798</v>
       </c>
       <c r="F11" t="n">
-        <v>652.880006695592</v>
+        <v>301.9719706924461</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>301.9719706924461</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>72.8296015461251</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2905.82359028062</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="V11" t="n">
-        <v>2750.651424711535</v>
+        <v>2697.97820891827</v>
       </c>
       <c r="W11" t="n">
-        <v>2474.593070967011</v>
+        <v>2421.919855173746</v>
       </c>
       <c r="X11" t="n">
-        <v>2180.081147187256</v>
+        <v>2127.407931393991</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.531119395045</v>
+        <v>1825.85790360178</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082779</v>
@@ -5185,10 +5185,10 @@
         <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311672</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,25 +5197,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5230,7 +5230,7 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
@@ -5242,7 +5242,7 @@
         <v>711.5230842553815</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1529.58061935049</v>
+        <v>1681.115887455785</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1382.881067245904</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>1092.38061974976</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>784.7377761534929</v>
       </c>
       <c r="F14" t="n">
-        <v>609.483571075245</v>
+        <v>462.7840189706594</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>144.5619447458505</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.421117100481</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2707.254989091188</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W14" t="n">
-        <v>2431.196635346664</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X14" t="n">
-        <v>2136.684711566909</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y14" t="n">
-        <v>1835.134683774698</v>
+        <v>1986.669951879994</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
         <v>1458.313011372373</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669550999</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082774</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979805</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443714</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445327</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,34 +5434,34 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362509</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852098</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5683,16 +5683,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5735,13 +5735,13 @@
         <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,25 +5908,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229942</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222413</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5978,7 +5978,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,16 +6075,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,13 +6145,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
         <v>629.0093992567336</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985346</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414153</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878062</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879675</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746014</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6467,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,19 +6491,19 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6549,16 +6549,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985346</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192009</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225738</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904111</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674337</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.5275805474762</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267645</v>
+        <v>87.68547930209931</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193353</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2247.797739360292</v>
+        <v>2239.568548578348</v>
       </c>
       <c r="O32" t="n">
-        <v>2796.327847893006</v>
+        <v>2794.477684958975</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011322</v>
+        <v>3142.665177090497</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.199034522561</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>807.4368465910375</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1463.214817801596</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1979.735100392577</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590196</v>
+        <v>341.6872565554786</v>
       </c>
       <c r="C34" t="n">
-        <v>329.727691322913</v>
+        <v>288.6839909715326</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233318</v>
+        <v>250.2527302241121</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804385</v>
+        <v>211.8957704333794</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913156</v>
+        <v>171.7716879964172</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886652</v>
+        <v>120.7194864459275</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806339</v>
+        <v>82.44278775748624</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K34" t="n">
-        <v>258.8681761333731</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>531.4863236475587</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>717.7779019858227</v>
+        <v>498.8044740666346</v>
       </c>
       <c r="N34" t="n">
-        <v>900.967536017032</v>
+        <v>695.843915866074</v>
       </c>
       <c r="O34" t="n">
-        <v>1172.162810699126</v>
+        <v>973.4182183960805</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381857</v>
+        <v>1208.163919660958</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392294</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422775</v>
+        <v>1319.756514501949</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003228</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552862</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448277</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279002</v>
+        <v>798.6106513157167</v>
       </c>
       <c r="W34" t="n">
-        <v>699.559993756982</v>
+        <v>632.4821015969592</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378692</v>
+        <v>515.603631730007</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524167</v>
+        <v>409.6934228967151</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7108,37 +7108,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072227</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390484</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>442.71782091847</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>629.009399256734</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879432</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1812.812015342702</v>
+        <v>1586.170216899326</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.077765835765</v>
+        <v>1290.435967392389</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042566</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492442</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693555</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474919</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7442,19 +7442,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2947.644907630508</v>
       </c>
       <c r="V41" t="n">
-        <v>2861.290827899428</v>
+        <v>2702.97935032416</v>
       </c>
       <c r="W41" t="n">
-        <v>2706.926319230041</v>
+        <v>2429.421567282581</v>
       </c>
       <c r="X41" t="n">
-        <v>2414.914966153231</v>
+        <v>2137.410214205771</v>
       </c>
       <c r="Y41" t="n">
-        <v>2115.865509063965</v>
+        <v>1838.360757116505</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344859</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906084</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832564</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690443</v>
+        <v>97.77230107690438</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>564.8145793170086</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>846.6083287308022</v>
       </c>
       <c r="N43" t="n">
         <v>1125.300133837541</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1383.507071954779</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
         <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557615</v>
+        <v>825.657018155761</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288773</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356544</v>
+        <v>563.347138735654</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1340.175609875975</v>
+        <v>1812.812015342702</v>
       </c>
       <c r="C44" t="n">
-        <v>1044.441360369038</v>
+        <v>1517.077765835765</v>
       </c>
       <c r="D44" t="n">
-        <v>1044.441360369038</v>
+        <v>1229.077889042566</v>
       </c>
       <c r="E44" t="n">
-        <v>739.2990874757161</v>
+        <v>923.9356161492442</v>
       </c>
       <c r="F44" t="n">
-        <v>419.8459009958274</v>
+        <v>604.4824296693552</v>
       </c>
       <c r="G44" t="n">
-        <v>104.1243974739649</v>
+        <v>288.7609261474917</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804893</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="W44" t="n">
-        <v>2234.289913763314</v>
+        <v>2706.339251713747</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.278560686504</v>
+        <v>2414.327898636937</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.229103597238</v>
+        <v>2115.865509063965</v>
       </c>
     </row>
     <row r="45">
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7804,22 +7804,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>68.23195016743819</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529096</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170086</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308022</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P46" t="n">
         <v>1539.269802792118</v>
@@ -7982,16 +7982,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>233.5699038900431</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107118</v>
+        <v>608.747774936315</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>173.1723846700685</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671511</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>525.0221998797331</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>386.9637784207944</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107118</v>
+        <v>518.9460212577408</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507686</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>338.330882480881</v>
+        <v>132.7502471050822</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>656.228399718133</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>108.8653421701425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9252,7 +9252,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9486,7 +9486,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>577.0069902189987</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>577.0069902189987</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,22 +10428,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069885</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10601,7 +10601,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,16 +10671,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,16 +10908,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>223.122899967847</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.35910216055369</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>91.07402281580607</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>145.2325565835401</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414334</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>136.4583343130499</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>50.35432396904324</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822794</v>
+        <v>40.4869062682279</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812806</v>
+        <v>68.38158003812802</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>118.0013416284709</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>182.7901633867915</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>40.4869062682279</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812802</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>0.5811968411314388</v>
       </c>
     </row>
     <row r="45">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>609216.9672535693</v>
+        <v>608314.6458329288</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>609216.9672535693</v>
+        <v>608314.6458329288</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581036.4715628325</v>
+        <v>581036.4715628326</v>
       </c>
     </row>
     <row r="6">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>583401.131246931</v>
+        <v>583401.1312469312</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>685262.2767547555</v>
+      </c>
+      <c r="C2" t="n">
+        <v>685262.2767547562</v>
+      </c>
+      <c r="D2" t="n">
         <v>685262.2767547556</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>644009.2661963062</v>
+      </c>
+      <c r="F2" t="n">
+        <v>644009.2661963068</v>
+      </c>
+      <c r="G2" t="n">
         <v>685262.276754756</v>
       </c>
-      <c r="D2" t="n">
-        <v>685262.2767547558</v>
-      </c>
-      <c r="E2" t="n">
-        <v>644009.2661963056</v>
-      </c>
-      <c r="F2" t="n">
-        <v>644009.266196306</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>685262.2767547562</v>
       </c>
-      <c r="H2" t="n">
-        <v>685262.276754756</v>
-      </c>
       <c r="I2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547562</v>
       </c>
       <c r="J2" t="n">
         <v>685262.2767547559</v>
       </c>
       <c r="K2" t="n">
-        <v>685262.2767547558</v>
+        <v>685262.2767547561</v>
       </c>
       <c r="L2" t="n">
-        <v>685262.2767547552</v>
+        <v>685262.2767547563</v>
       </c>
       <c r="M2" t="n">
         <v>685262.2767547561</v>
       </c>
       <c r="N2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547562</v>
       </c>
       <c r="O2" t="n">
+        <v>646817.2995711734</v>
+      </c>
+      <c r="P2" t="n">
         <v>646817.2995711736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>646817.2995711734</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602676</v>
+        <v>26460.41160941822</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301436</v>
+        <v>29094.95587301432</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670128</v>
+        <v>46725.80335481246</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555667</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015685</v>
+        <v>18983.55983015688</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432094</v>
+        <v>208555.398698792</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432094</v>
+        <v>208555.3986987921</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>135951.970348308</v>
+        <v>135951.9703483081</v>
       </c>
       <c r="F4" t="n">
-        <v>135951.970348308</v>
+        <v>135951.9703483081</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.9288015119</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446764</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
       <c r="P5" t="n">
         <v>55320.40778255073</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238600.8724890462</v>
+        <v>242651.5444964607</v>
       </c>
       <c r="C6" t="n">
-        <v>416596.1696233971</v>
+        <v>412300.5503730112</v>
       </c>
       <c r="D6" t="n">
-        <v>408268.7242805199</v>
+        <v>400532.4350571283</v>
       </c>
       <c r="E6" t="n">
-        <v>322492.0752013763</v>
+        <v>322383.5146472756</v>
       </c>
       <c r="F6" t="n">
-        <v>452945.0063390888</v>
+        <v>452836.4457849884</v>
       </c>
       <c r="G6" t="n">
-        <v>437441.2605744321</v>
+        <v>437441.260574432</v>
       </c>
       <c r="H6" t="n">
-        <v>466536.2164474463</v>
+        <v>466536.2164474467</v>
       </c>
       <c r="I6" t="n">
-        <v>466536.2164474463</v>
+        <v>466536.2164474466</v>
       </c>
       <c r="J6" t="n">
-        <v>238450.5730976968</v>
+        <v>244966.85825227</v>
       </c>
       <c r="K6" t="n">
-        <v>460296.4480446631</v>
+        <v>460296.4480446635</v>
       </c>
       <c r="L6" t="n">
-        <v>421402.1011120743</v>
+        <v>417353.2639016033</v>
       </c>
       <c r="M6" t="n">
-        <v>423804.9395130779</v>
+        <v>422753.2445018897</v>
       </c>
       <c r="N6" t="n">
-        <v>466536.2164474463</v>
+        <v>466536.2164474466</v>
       </c>
       <c r="O6" t="n">
-        <v>434886.7457111666</v>
+        <v>434785.574718578</v>
       </c>
       <c r="P6" t="n">
-        <v>453870.3055413232</v>
+        <v>453769.134548735</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P2" t="n">
         <v>96.46683947023192</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26814,10 +26814,10 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880677</v>
+        <v>831.8776843078614</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.3686948412679</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.9637917208766</v>
+        <v>58.40725419351557</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165925</v>
+        <v>14.33013548902028</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769607</v>
+        <v>23.7294497876961</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631061</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559186</v>
+        <v>646.8007142757124</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455253</v>
+        <v>129.6883820257317</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.3686948412679</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631061</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>329.764979072083</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>270.0039831942925</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>75.41134685124672</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.66721019408324</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>104.0045570257511</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>118.5727835600601</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5461316205949</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>91.79583472727467</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408324</v>
+        <v>173.3191472836677</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>258.929066985795</v>
       </c>
       <c r="V7" t="n">
-        <v>120.7985178135444</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>354.1820744015266</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>16.83481595771138</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>107.3210308028555</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28068,13 +28068,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431596</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="17">
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,28 +28980,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668825</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,16 +29217,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>35.71049010668817</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29539,22 +29539,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="O29" t="n">
-        <v>30.27223765901266</v>
-      </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29706,7 +29706,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="P31" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29782,13 +29782,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.5863713539251</v>
+        <v>103.2865954513717</v>
       </c>
       <c r="O32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P32" t="n">
-        <v>98.75804948161004</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>13.98970481639412</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>28.92237465267917</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>5.636002634528481</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.6129845773342</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>35.7104901066887</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="O43" t="n">
-        <v>36.24905561693126</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561692944</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>96.46683947023192</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561692943</v>
       </c>
       <c r="K46" t="n">
         <v>96.46683947023192</v>
@@ -30894,7 +30894,7 @@
         <v>96.46683947023192</v>
       </c>
       <c r="P46" t="n">
-        <v>36.24905561692944</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Q46" t="n">
         <v>96.46683947023192</v>
@@ -34702,16 +34702,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>80.32173415955137</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129845</v>
+        <v>459.0227233385877</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>80.78526262075664</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129845</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>432.3346409908442</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>233.7156086903027</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129845</v>
+        <v>369.2209696600135</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129845</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>245.9437604315691</v>
+        <v>40.36312505577026</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>23.49322931597588</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35583,10 +35583,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215689</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529181</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934981</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P31" t="n">
         <v>215.0783106122746</v>
@@ -37078,13 +37078,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988362</v>
+        <v>636.4293061962828</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997114</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
-        <v>450.4625869881978</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37148,22 +37148,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576765</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407351</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>199.0297391913529</v>
       </c>
       <c r="O34" t="n">
-        <v>273.934620891004</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>150.0094107906373</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640776</v>
+        <v>119.4865978367166</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,16 +37391,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37476,13 +37476,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,16 +37628,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>201.4959849287087</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807285</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37950,13 +37950,13 @@
         <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>200.5973051540101</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>157.3360917548876</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038436</v>
+        <v>99.9236034803844</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807285</v>
+        <v>6.174568144770362</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38190,7 +38190,7 @@
         <v>260.8150890073108</v>
       </c>
       <c r="P46" t="n">
-        <v>157.3360917548876</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
         <v>99.9236034803844</v>
